--- a/Index_Ref/JR_Index_Ref.xlsx
+++ b/Index_Ref/JR_Index_Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\Index_Ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E98F2F-0CA7-4FD6-BC22-1FAA44C77555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B833051-3D46-494A-B73C-2E75FF5B4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4830" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="295">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -70,6 +81,846 @@
   </si>
   <si>
     <t>Baden</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>v'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0001</t>
+  </si>
+  <si>
+    <t>[Titisee-Jostal]</t>
+  </si>
+  <si>
+    <t>[Neustadt/Schwarzwald]</t>
+  </si>
+  <si>
+    <t>f'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0002</t>
+  </si>
+  <si>
+    <t>Vorder-</t>
+  </si>
+  <si>
+    <t>Griesbach</t>
+  </si>
+  <si>
+    <t>[?]ingen</t>
+  </si>
+  <si>
+    <t>q'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0003</t>
+  </si>
+  <si>
+    <t>Freudenstadt</t>
+  </si>
+  <si>
+    <t>Württemberg</t>
+  </si>
+  <si>
+    <t>24 Höfe</t>
+  </si>
+  <si>
+    <t>Y'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0004</t>
+  </si>
+  <si>
+    <t>Kreuzwertheim</t>
+  </si>
+  <si>
+    <t>Marktheidenfeld</t>
+  </si>
+  <si>
+    <t>Mainfranken</t>
+  </si>
+  <si>
+    <t>Schutte_00_0005</t>
+  </si>
+  <si>
+    <t>Hippetsweiler</t>
+  </si>
+  <si>
+    <t>Sigmaringen</t>
+  </si>
+  <si>
+    <t>u'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0006</t>
+  </si>
+  <si>
+    <t>Kanzach</t>
+  </si>
+  <si>
+    <t>Saulgau</t>
+  </si>
+  <si>
+    <t>Mengen</t>
+  </si>
+  <si>
+    <t>Schutte_00_0007</t>
+  </si>
+  <si>
+    <t>t'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0008</t>
+  </si>
+  <si>
+    <t>Königsheim</t>
+  </si>
+  <si>
+    <t>Tuttlingen</t>
+  </si>
+  <si>
+    <t>s'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0009</t>
+  </si>
+  <si>
+    <t>Seedorf</t>
+  </si>
+  <si>
+    <t>Rottweil</t>
+  </si>
+  <si>
+    <t>Schwarzwaldvorebene</t>
+  </si>
+  <si>
+    <t>Schutte_00_0010</t>
+  </si>
+  <si>
+    <t>Heppenheim</t>
+  </si>
+  <si>
+    <t>Bergstrasse</t>
+  </si>
+  <si>
+    <t>Starkenburg</t>
+  </si>
+  <si>
+    <t>Duttenberg</t>
+  </si>
+  <si>
+    <t>Heilbronn</t>
+  </si>
+  <si>
+    <t>l'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0011</t>
+  </si>
+  <si>
+    <t>e'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0012</t>
+  </si>
+  <si>
+    <t>Öhringen</t>
+  </si>
+  <si>
+    <t>[Eic]hach</t>
+  </si>
+  <si>
+    <t>m'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0013</t>
+  </si>
+  <si>
+    <t>Weil der Stadt</t>
+  </si>
+  <si>
+    <t>Leonberg</t>
+  </si>
+  <si>
+    <t>Schutte_00_0014</t>
+  </si>
+  <si>
+    <t>Rosenau</t>
+  </si>
+  <si>
+    <t>Kronstadt</t>
+  </si>
+  <si>
+    <t>999{Land: Rumänien}</t>
+  </si>
+  <si>
+    <t>o''</t>
+  </si>
+  <si>
+    <t>Schutte_00_0015</t>
+  </si>
+  <si>
+    <t>Windsischbleiberg</t>
+  </si>
+  <si>
+    <t>Klagenfurt</t>
+  </si>
+  <si>
+    <t>Kärnten</t>
+  </si>
+  <si>
+    <t>g''</t>
+  </si>
+  <si>
+    <t>Schutte_00_0016</t>
+  </si>
+  <si>
+    <t>Güssing</t>
+  </si>
+  <si>
+    <t>Fürstenfeld</t>
+  </si>
+  <si>
+    <t>Steiermark</t>
+  </si>
+  <si>
+    <t>w'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0017</t>
+  </si>
+  <si>
+    <t>Matzendorf</t>
+  </si>
+  <si>
+    <t>Wr. Neustadt</t>
+  </si>
+  <si>
+    <t>&lt;n.d.&gt;</t>
+  </si>
+  <si>
+    <t>St. Georgen</t>
+  </si>
+  <si>
+    <t>Schutte_00_0018</t>
+  </si>
+  <si>
+    <t>Spittal</t>
+  </si>
+  <si>
+    <t>Gau Kärnten</t>
+  </si>
+  <si>
+    <t>Schutte_00_0019</t>
+  </si>
+  <si>
+    <t>Reindlmühl</t>
+  </si>
+  <si>
+    <t>Gmunden</t>
+  </si>
+  <si>
+    <t>Gau Oberdonau</t>
+  </si>
+  <si>
+    <t>Schutte_00_0020</t>
+  </si>
+  <si>
+    <t>Vinaders</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>bei Gries a. [Brenner]</t>
+  </si>
+  <si>
+    <t>Schutte_00_0021</t>
+  </si>
+  <si>
+    <t>Bruckmühl</t>
+  </si>
+  <si>
+    <t>Oberbayern</t>
+  </si>
+  <si>
+    <t>Bad Aibling</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Schutte_00_0022</t>
+  </si>
+  <si>
+    <t>Wolschweiler</t>
+  </si>
+  <si>
+    <t>Altkirch</t>
+  </si>
+  <si>
+    <t>Ober-Elsaß</t>
+  </si>
+  <si>
+    <t>Schutte_00_0023</t>
+  </si>
+  <si>
+    <t>Obergrafendorf</t>
+  </si>
+  <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Ostmark</t>
+  </si>
+  <si>
+    <t>n'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0024</t>
+  </si>
+  <si>
+    <t>Oberstinkenbrunn</t>
+  </si>
+  <si>
+    <t>Hollabrunn</t>
+  </si>
+  <si>
+    <t>Gau Niederdonau</t>
+  </si>
+  <si>
+    <t>c'</t>
+  </si>
+  <si>
+    <t>Neufahrn</t>
+  </si>
+  <si>
+    <t>Schutte_00_0025</t>
+  </si>
+  <si>
+    <t>Freising</t>
+  </si>
+  <si>
+    <t>Obb.</t>
+  </si>
+  <si>
+    <t>Schutte_00_0026</t>
+  </si>
+  <si>
+    <t>Geisenfeld</t>
+  </si>
+  <si>
+    <t>Pfaffenhofen a. d. Ilm</t>
+  </si>
+  <si>
+    <t>Schutte_00_0027</t>
+  </si>
+  <si>
+    <t>Saybusch</t>
+  </si>
+  <si>
+    <t>Nieder-Rycerka</t>
+  </si>
+  <si>
+    <t>Oberschlesien</t>
+  </si>
+  <si>
+    <t>Zabrzeg</t>
+  </si>
+  <si>
+    <t>Bielitz</t>
+  </si>
+  <si>
+    <t>Schutte_00_0028</t>
+  </si>
+  <si>
+    <t>G/S.</t>
+  </si>
+  <si>
+    <t>T'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0029</t>
+  </si>
+  <si>
+    <t>Sabschütz</t>
+  </si>
+  <si>
+    <t>Leobschütz</t>
+  </si>
+  <si>
+    <t>Schlesien</t>
+  </si>
+  <si>
+    <t>L'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0030</t>
+  </si>
+  <si>
+    <t>Kiefernwalde</t>
+  </si>
+  <si>
+    <t>Rosenberg</t>
+  </si>
+  <si>
+    <t>fr. Laskowitz</t>
+  </si>
+  <si>
+    <t>[Schlesien]</t>
+  </si>
+  <si>
+    <t>[H]'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0031</t>
+  </si>
+  <si>
+    <t>Grulich</t>
+  </si>
+  <si>
+    <t>Sudetengau</t>
+  </si>
+  <si>
+    <t>Schedi[win]</t>
+  </si>
+  <si>
+    <t>K'</t>
+  </si>
+  <si>
+    <t>Schutte_00_0032</t>
+  </si>
+  <si>
+    <t>Wünschendorf</t>
+  </si>
+  <si>
+    <t>Löwenberg</t>
+  </si>
+  <si>
+    <t>Schutte_00_0033</t>
+  </si>
+  <si>
+    <t>Wladislawow</t>
+  </si>
+  <si>
+    <t>Plöhnen</t>
+  </si>
+  <si>
+    <t>Ostpreussen</t>
+  </si>
+  <si>
+    <t>Schutte_00_0034</t>
+  </si>
+  <si>
+    <t>Opinogora</t>
+  </si>
+  <si>
+    <t>Zicherau</t>
+  </si>
+  <si>
+    <t>Ostpreußen</t>
+  </si>
+  <si>
+    <t>Schutte_00_0035</t>
+  </si>
+  <si>
+    <t>Slugi</t>
+  </si>
+  <si>
+    <t>Lentschütz</t>
+  </si>
+  <si>
+    <t>Gemeinde Tum</t>
+  </si>
+  <si>
+    <t>Wartheland</t>
+  </si>
+  <si>
+    <t>Schutte_00_0036</t>
+  </si>
+  <si>
+    <t>Löwen</t>
+  </si>
+  <si>
+    <t>Karowsieki</t>
+  </si>
+  <si>
+    <t>Schröttersburg</t>
+  </si>
+  <si>
+    <t>Süelostpr.</t>
+  </si>
+  <si>
+    <t>Schutte_00_0037</t>
+  </si>
+  <si>
+    <t>Lebus</t>
+  </si>
+  <si>
+    <t>Güldendorf</t>
+  </si>
+  <si>
+    <t>fr. Tschetzschnow</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Schutte_00_0038</t>
+  </si>
+  <si>
+    <t>Dierkow</t>
+  </si>
+  <si>
+    <t>Soldin</t>
+  </si>
+  <si>
+    <t>Dickow</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Schutte_00_0039</t>
+  </si>
+  <si>
+    <t>Alt-Haldensleben</t>
+  </si>
+  <si>
+    <t>Haldensleben</t>
+  </si>
+  <si>
+    <t>S[?]</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Schutte_00_0040</t>
+  </si>
+  <si>
+    <t>Schönberg</t>
+  </si>
+  <si>
+    <t>Osterburg</t>
+  </si>
+  <si>
+    <t>Damm</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Schutte_00_0041</t>
+  </si>
+  <si>
+    <t>Bonneberg</t>
+  </si>
+  <si>
+    <t>Herford</t>
+  </si>
+  <si>
+    <t>Westfalen</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Schutte_00_0042</t>
+  </si>
+  <si>
+    <t>Schlessinghausen</t>
+  </si>
+  <si>
+    <t>Nienburg</t>
+  </si>
+  <si>
+    <t>[Hannover]</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Schutte_00_0043</t>
+  </si>
+  <si>
+    <t>Waldau</t>
+  </si>
+  <si>
+    <t>Kulm</t>
+  </si>
+  <si>
+    <t>Kgl. Waldau</t>
+  </si>
+  <si>
+    <t>Westpr.</t>
+  </si>
+  <si>
+    <t>Schutte_00_0044</t>
+  </si>
+  <si>
+    <t>Konitz</t>
+  </si>
+  <si>
+    <t>Gau Danzig-Westpr.</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Schutte_00_0045</t>
+  </si>
+  <si>
+    <t>Kolmar</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Schutte_00_0046</t>
+  </si>
+  <si>
+    <t>Soltznitz</t>
+  </si>
+  <si>
+    <t>Neustettin</t>
+  </si>
+  <si>
+    <t>Pommern</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Schutte_00_0047</t>
+  </si>
+  <si>
+    <t>Sabow</t>
+  </si>
+  <si>
+    <t>Pyritz</t>
+  </si>
+  <si>
+    <t>Satr[es]</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Schutte_00_0048</t>
+  </si>
+  <si>
+    <t>Dorphagen</t>
+  </si>
+  <si>
+    <t>Cammin</t>
+  </si>
+  <si>
+    <t>Schutte_00_0049</t>
+  </si>
+  <si>
+    <t>Bertikow</t>
+  </si>
+  <si>
+    <t>Angermünde</t>
+  </si>
+  <si>
+    <t>Schutte_00_0050</t>
+  </si>
+  <si>
+    <t>Bargischow</t>
+  </si>
+  <si>
+    <t>Anklam</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Schutte_00_0051</t>
+  </si>
+  <si>
+    <t>Glaisin</t>
+  </si>
+  <si>
+    <t>Ludwigslust</t>
+  </si>
+  <si>
+    <t>Mecklbg.</t>
+  </si>
+  <si>
+    <t>Schutte_00_0052</t>
+  </si>
+  <si>
+    <t>Oettelin</t>
+  </si>
+  <si>
+    <t>Güstrow</t>
+  </si>
+  <si>
+    <t>Mecklenburg</t>
+  </si>
+  <si>
+    <t>Schutte_00_0053</t>
+  </si>
+  <si>
+    <t>Oldenburg</t>
+  </si>
+  <si>
+    <t>Schierbrok</t>
+  </si>
+  <si>
+    <t>Schutte_00_0054</t>
+  </si>
+  <si>
+    <t>Helse</t>
+  </si>
+  <si>
+    <t>Süderdithmarschen</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Schutte_00_0055</t>
+  </si>
+  <si>
+    <t>Klimmen</t>
+  </si>
+  <si>
+    <t>Ebenrode</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Schutte_00_0056</t>
+  </si>
+  <si>
+    <t>Scharken</t>
+  </si>
+  <si>
+    <t>Post Hohensalzburg</t>
+  </si>
+  <si>
+    <t>Tilsit-Ragnit</t>
+  </si>
+  <si>
+    <t>Schutte_00_0057</t>
+  </si>
+  <si>
+    <t>Gomingen</t>
+  </si>
+  <si>
+    <t>Gerdauen</t>
+  </si>
+  <si>
+    <t>Schutte_00_0058</t>
+  </si>
+  <si>
+    <t>Mulden</t>
+  </si>
+  <si>
+    <t>Mulden II</t>
+  </si>
+  <si>
+    <t>Schutte_00_0059</t>
+  </si>
+  <si>
+    <t>Grünhoff</t>
+  </si>
+  <si>
+    <t>Samland</t>
+  </si>
+  <si>
+    <t>fr. Fischhausen</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Schutte_00_0060</t>
+  </si>
+  <si>
+    <t>Klucken</t>
+  </si>
+  <si>
+    <t>Stolp</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Schutte_00_0061</t>
+  </si>
+  <si>
+    <t>Priddargen</t>
+  </si>
+  <si>
+    <t>Köslin</t>
+  </si>
+  <si>
+    <t>Pomm.</t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>Schutte_00_0062</t>
+  </si>
+  <si>
+    <t>Glücksburg</t>
+  </si>
+  <si>
+    <t>Flensburg</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Schleswig-Holst.</t>
+  </si>
+  <si>
+    <t>Schutte_00_0063</t>
+  </si>
+  <si>
+    <t>Haurup</t>
+  </si>
+  <si>
+    <t>i''</t>
+  </si>
+  <si>
+    <t>Schutte_00_0064</t>
+  </si>
+  <si>
+    <t>Glödnitz</t>
+  </si>
+  <si>
+    <t>St.Veit</t>
+  </si>
+  <si>
+    <t>q''</t>
+  </si>
+  <si>
+    <t>Schutte_00_0065</t>
+  </si>
+  <si>
+    <t>Kurtatsch</t>
+  </si>
+  <si>
+    <t>Kurtatsch,Etschtal</t>
+  </si>
+  <si>
+    <t>[Bozen]</t>
   </si>
 </sst>
 </file>
@@ -459,15 +1310,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -523,6 +1375,1888 @@
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13">
+        <v>999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>999</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>999</v>
+      </c>
+      <c r="C16">
+        <v>999</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23">
+        <v>999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25">
+        <v>999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27">
+        <v>999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28">
+        <v>999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>999</v>
+      </c>
+      <c r="C29">
+        <v>999</v>
+      </c>
+      <c r="D29">
+        <v>999</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>999</v>
+      </c>
+      <c r="C30">
+        <v>999</v>
+      </c>
+      <c r="D30">
+        <v>999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
+        <v>999</v>
+      </c>
+      <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31">
+        <v>999</v>
+      </c>
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34">
+        <v>999</v>
+      </c>
+      <c r="H34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>999</v>
+      </c>
+      <c r="C35">
+        <v>999</v>
+      </c>
+      <c r="D35">
+        <v>999</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>999</v>
+      </c>
+      <c r="C36">
+        <v>999</v>
+      </c>
+      <c r="D36">
+        <v>999</v>
+      </c>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>999</v>
+      </c>
+      <c r="C37">
+        <v>999</v>
+      </c>
+      <c r="D37">
+        <v>999</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>999</v>
+      </c>
+      <c r="C38">
+        <v>999</v>
+      </c>
+      <c r="D38">
+        <v>999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41">
+        <v>999</v>
+      </c>
+      <c r="H41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44">
+        <v>999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46">
+        <v>999</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47">
+        <v>67</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48">
+        <v>67</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48">
+        <v>999</v>
+      </c>
+      <c r="H48" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50">
+        <v>999</v>
+      </c>
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+      <c r="I50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51">
+        <v>999</v>
+      </c>
+      <c r="H51" t="s">
+        <v>230</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" t="s">
+        <v>232</v>
+      </c>
+      <c r="G52">
+        <v>999</v>
+      </c>
+      <c r="H52" t="s">
+        <v>233</v>
+      </c>
+      <c r="I52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53">
+        <v>999</v>
+      </c>
+      <c r="H53" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" t="s">
+        <v>244</v>
+      </c>
+      <c r="I55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56">
+        <v>999</v>
+      </c>
+      <c r="H56" t="s">
+        <v>248</v>
+      </c>
+      <c r="I56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57">
+        <v>101</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57">
+        <v>999</v>
+      </c>
+      <c r="H57" t="s">
+        <v>252</v>
+      </c>
+      <c r="I57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" t="s">
+        <v>255</v>
+      </c>
+      <c r="G58" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60">
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60">
+        <v>999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>260</v>
+      </c>
+      <c r="I60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F62" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62">
+        <v>999</v>
+      </c>
+      <c r="H62" t="s">
+        <v>271</v>
+      </c>
+      <c r="I62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F63" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63">
+        <v>999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64">
+        <v>999</v>
+      </c>
+      <c r="H64" t="s">
+        <v>281</v>
+      </c>
+      <c r="I64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65">
+        <v>999</v>
+      </c>
+      <c r="H65" t="s">
+        <v>281</v>
+      </c>
+      <c r="I65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66">
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66">
+        <v>999</v>
+      </c>
+      <c r="H66" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67">
+        <v>34</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" t="s">
+        <v>292</v>
+      </c>
+      <c r="G67">
+        <v>999</v>
+      </c>
+      <c r="H67" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Index_Ref/JR_Index_Ref.xlsx
+++ b/Index_Ref/JR_Index_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B833051-3D46-494A-B73C-2E75FF5B4DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD6FED-8D3A-A241-AFE2-EC1F803F4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="389">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Schutte_00_0001</t>
   </si>
   <si>
-    <t>[Titisee-Jostal]</t>
-  </si>
-  <si>
-    <t>[Neustadt/Schwarzwald]</t>
-  </si>
-  <si>
     <t>f'</t>
   </si>
   <si>
@@ -921,6 +915,294 @@
   </si>
   <si>
     <t>[Bozen]</t>
+  </si>
+  <si>
+    <t>XXI_04_0001</t>
+  </si>
+  <si>
+    <t>Topportz</t>
+  </si>
+  <si>
+    <t>Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0002</t>
+  </si>
+  <si>
+    <t>Unter Schwaben</t>
+  </si>
+  <si>
+    <t>Titisee-Jostal</t>
+  </si>
+  <si>
+    <t>Neustadt/Schwarzwald</t>
+  </si>
+  <si>
+    <t>Altendorf</t>
+  </si>
+  <si>
+    <t>po[?]. Smerdsŏnka</t>
+  </si>
+  <si>
+    <t>XXI_04_0003</t>
+  </si>
+  <si>
+    <t>Pudlein</t>
+  </si>
+  <si>
+    <t>Oberzips</t>
+  </si>
+  <si>
+    <t>XXI_04_0004</t>
+  </si>
+  <si>
+    <t>Klein-Lomnitz</t>
+  </si>
+  <si>
+    <t>Käsmark</t>
+  </si>
+  <si>
+    <t>XXI_04_0005</t>
+  </si>
+  <si>
+    <t>Kniesen</t>
+  </si>
+  <si>
+    <t>XXI_04_0006</t>
+  </si>
+  <si>
+    <t>Hobgart</t>
+  </si>
+  <si>
+    <t>XXI_04_0007</t>
+  </si>
+  <si>
+    <t>Bierbrunn</t>
+  </si>
+  <si>
+    <t>XXI_04_0008</t>
+  </si>
+  <si>
+    <t>Malthern</t>
+  </si>
+  <si>
+    <t>XXI_04_0009</t>
+  </si>
+  <si>
+    <t>Bauschendorf</t>
+  </si>
+  <si>
+    <t>Zips</t>
+  </si>
+  <si>
+    <t>XXI_04_0010</t>
+  </si>
+  <si>
+    <t>Roks</t>
+  </si>
+  <si>
+    <t>(Rokus)</t>
+  </si>
+  <si>
+    <t>XXI_04_0011</t>
+  </si>
+  <si>
+    <t>Bela</t>
+  </si>
+  <si>
+    <t>Tatragau</t>
+  </si>
+  <si>
+    <t>Zipser {auf 4. Seite vorangestellt}</t>
+  </si>
+  <si>
+    <t>XXI_04_0012</t>
+  </si>
+  <si>
+    <t>Ne[l]re</t>
+  </si>
+  <si>
+    <t>Oberzips &lt;Bezirk: Küsmark&gt;</t>
+  </si>
+  <si>
+    <t>XXI_04_0013</t>
+  </si>
+  <si>
+    <t>Hollumtz</t>
+  </si>
+  <si>
+    <t>Land: Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0014</t>
+  </si>
+  <si>
+    <t>Meierhöfen</t>
+  </si>
+  <si>
+    <t>XXI_04_0015</t>
+  </si>
+  <si>
+    <t>Neuwalddorf</t>
+  </si>
+  <si>
+    <t>Oberzips, Deutschendorf {O auf S. 1, D auf 4}</t>
+  </si>
+  <si>
+    <t>XXI_04_0016</t>
+  </si>
+  <si>
+    <t>Alt-Walddorf</t>
+  </si>
+  <si>
+    <t>XXI_04_0017</t>
+  </si>
+  <si>
+    <t>Groß-Schlagendorf</t>
+  </si>
+  <si>
+    <t>XXI_04_0018</t>
+  </si>
+  <si>
+    <t>Mühlenbach</t>
+  </si>
+  <si>
+    <t>Zips, Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0019</t>
+  </si>
+  <si>
+    <t>Matzdorf</t>
+  </si>
+  <si>
+    <t>Oberzips Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0020</t>
+  </si>
+  <si>
+    <t>Vorberg</t>
+  </si>
+  <si>
+    <t>Forberg {auf S. 4}</t>
+  </si>
+  <si>
+    <t>XXI_04_0021</t>
+  </si>
+  <si>
+    <t>XXI_04_0022</t>
+  </si>
+  <si>
+    <t>Groß-Lomnitz</t>
+  </si>
+  <si>
+    <t>&lt;Bezirk:&gt; Käsmark</t>
+  </si>
+  <si>
+    <t>XXI_04_0023</t>
+  </si>
+  <si>
+    <t>Hunsdorf</t>
+  </si>
+  <si>
+    <t>XXI_04_0024</t>
+  </si>
+  <si>
+    <t>Leibitz</t>
+  </si>
+  <si>
+    <t>XXI_04_0025</t>
+  </si>
+  <si>
+    <t>Eisdorf</t>
+  </si>
+  <si>
+    <t>XXI_04_0026</t>
+  </si>
+  <si>
+    <t>Menhardsdorf</t>
+  </si>
+  <si>
+    <t>[v]rbov.</t>
+  </si>
+  <si>
+    <t>XXI_04_0027</t>
+  </si>
+  <si>
+    <t>Surelsdorf</t>
+  </si>
+  <si>
+    <t>Zips in der Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0028</t>
+  </si>
+  <si>
+    <t>Riesdorf</t>
+  </si>
+  <si>
+    <t>Leutschau</t>
+  </si>
+  <si>
+    <t>Burgerhof</t>
+  </si>
+  <si>
+    <t>XXI_04_0029</t>
+  </si>
+  <si>
+    <t>XXI_04_0030</t>
+  </si>
+  <si>
+    <t>Felka</t>
+  </si>
+  <si>
+    <t>Oberzips, Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0031</t>
+  </si>
+  <si>
+    <t>Georgenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oberzips-Slowakei, Deutschendorf </t>
+  </si>
+  <si>
+    <t>XXI_04_0032</t>
+  </si>
+  <si>
+    <t>Michelsdorf</t>
+  </si>
+  <si>
+    <t>XXI_04_0033</t>
+  </si>
+  <si>
+    <t>Poprad</t>
+  </si>
+  <si>
+    <t>Deutschendorf</t>
+  </si>
+  <si>
+    <t>Käsmark {auf S. 1}, Poprad {auf S. 4}</t>
+  </si>
+  <si>
+    <t>XXI_04_0034</t>
+  </si>
+  <si>
+    <t>Kirchdrauf</t>
+  </si>
+  <si>
+    <t>XXI_04_0035</t>
+  </si>
+  <si>
+    <t>Zipser Neudorf</t>
+  </si>
+  <si>
+    <t>Sp. Nová Ves</t>
+  </si>
+  <si>
+    <t>Zips {auf S. 1}, Zipser-Neudorf {auf S. 4}</t>
   </si>
 </sst>
 </file>
@@ -1310,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1394,13 +1676,13 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="G3">
         <v>999</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -1411,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1420,16 +1702,16 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
       </c>
       <c r="I4">
         <v>999</v>
@@ -1440,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -1449,19 +1731,19 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -1478,19 +1760,19 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>999</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>32</v>
-      </c>
-      <c r="G6">
-        <v>999</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1507,19 +1789,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>999</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1527,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1536,19 +1818,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>999</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1556,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1565,19 +1847,19 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>999</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -1594,19 +1876,19 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1614,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -1623,19 +1905,19 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>50</v>
-      </c>
-      <c r="G11">
-        <v>999</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1652,19 +1934,19 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>54</v>
-      </c>
-      <c r="G12">
-        <v>999</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1672,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1681,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>999</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1701,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -1710,16 +1992,16 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1727,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1736,19 +2018,19 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>999</v>
+      </c>
+      <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15">
-        <v>999</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1765,19 +2047,19 @@
         <v>999</v>
       </c>
       <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>999</v>
+      </c>
+      <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>70</v>
-      </c>
-      <c r="G16">
-        <v>999</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1785,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>52</v>
@@ -1794,19 +2076,19 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>75</v>
-      </c>
-      <c r="G17">
-        <v>999</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1814,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>64</v>
@@ -1823,19 +2105,19 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18">
+        <v>999</v>
+      </c>
+      <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>80</v>
-      </c>
-      <c r="G18">
-        <v>999</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1843,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>64</v>
@@ -1852,19 +2134,19 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+      <c r="H19" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>85</v>
-      </c>
-      <c r="G19">
-        <v>999</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1872,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>48</v>
@@ -1881,19 +2163,19 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>999</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20">
-        <v>999</v>
-      </c>
-      <c r="H20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1901,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>49</v>
@@ -1910,19 +2192,19 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+      <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>93</v>
-      </c>
-      <c r="G21">
-        <v>999</v>
-      </c>
-      <c r="H21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1930,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>35</v>
@@ -1939,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
         <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
       </c>
       <c r="I22">
         <v>999</v>
@@ -1959,7 +2241,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>38</v>
@@ -1968,19 +2250,19 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
         <v>100</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23">
-        <v>999</v>
-      </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1988,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1997,19 +2279,19 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>999</v>
+      </c>
+      <c r="H24" t="s">
         <v>105</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>106</v>
-      </c>
-      <c r="G24">
-        <v>999</v>
-      </c>
-      <c r="H24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2017,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -2026,19 +2308,19 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25">
+        <v>999</v>
+      </c>
+      <c r="H25" t="s">
         <v>109</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>110</v>
-      </c>
-      <c r="G25">
-        <v>999</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2046,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>63</v>
@@ -2055,19 +2337,19 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>115</v>
-      </c>
-      <c r="G26">
-        <v>999</v>
-      </c>
-      <c r="H26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2075,7 +2357,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>36</v>
@@ -2084,19 +2366,19 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27">
+        <v>999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
         <v>120</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27">
-        <v>999</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2104,7 +2386,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>36</v>
@@ -2113,16 +2395,16 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28">
+        <v>999</v>
+      </c>
+      <c r="H28" t="s">
         <v>123</v>
-      </c>
-      <c r="F28" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28">
-        <v>999</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
       </c>
       <c r="I28">
         <v>999</v>
@@ -2142,19 +2424,19 @@
         <v>999</v>
       </c>
       <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
         <v>126</v>
       </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
       <c r="G29">
         <v>999</v>
       </c>
       <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
         <v>127</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2171,19 +2453,19 @@
         <v>999</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30">
         <v>999</v>
       </c>
       <c r="H30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" t="s">
         <v>131</v>
-      </c>
-      <c r="I30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2191,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>74</v>
@@ -2200,19 +2482,19 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31">
+        <v>999</v>
+      </c>
+      <c r="H31" t="s">
         <v>135</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>136</v>
-      </c>
-      <c r="G31">
-        <v>999</v>
-      </c>
-      <c r="H31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2220,7 +2502,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -2229,19 +2511,19 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
         <v>140</v>
       </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>142</v>
-      </c>
-      <c r="I32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2249,7 +2531,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33">
         <v>64</v>
@@ -2258,19 +2540,19 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
         <v>146</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33">
-        <v>999</v>
-      </c>
-      <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2278,7 +2560,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>60</v>
@@ -2287,19 +2569,19 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>999</v>
+      </c>
+      <c r="H34" t="s">
         <v>151</v>
       </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34">
-        <v>999</v>
-      </c>
-      <c r="H34" t="s">
-        <v>153</v>
-      </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2316,19 +2598,19 @@
         <v>999</v>
       </c>
       <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" t="s">
         <v>154</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>155</v>
-      </c>
-      <c r="G35">
-        <v>999</v>
-      </c>
-      <c r="H35" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2345,19 +2627,19 @@
         <v>999</v>
       </c>
       <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36">
+        <v>999</v>
+      </c>
+      <c r="H36" t="s">
         <v>158</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>159</v>
-      </c>
-      <c r="G36">
-        <v>999</v>
-      </c>
-      <c r="H36" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2374,19 +2656,19 @@
         <v>999</v>
       </c>
       <c r="E37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
         <v>162</v>
       </c>
-      <c r="F37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>164</v>
-      </c>
-      <c r="I37" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,19 +2685,19 @@
         <v>999</v>
       </c>
       <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
         <v>167</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>168</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>169</v>
-      </c>
-      <c r="H38" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2423,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>54</v>
@@ -2432,19 +2714,19 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
         <v>172</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" t="s">
         <v>174</v>
-      </c>
-      <c r="G39" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2452,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>57</v>
@@ -2461,19 +2743,19 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" t="s">
         <v>177</v>
       </c>
-      <c r="F40" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H40" t="s">
-        <v>179</v>
-      </c>
       <c r="I40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2481,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C41">
         <v>35</v>
@@ -2490,19 +2772,19 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41">
+        <v>999</v>
+      </c>
+      <c r="H41" t="s">
         <v>182</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>183</v>
-      </c>
-      <c r="G41">
-        <v>999</v>
-      </c>
-      <c r="H41" t="s">
-        <v>184</v>
-      </c>
-      <c r="I41" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2510,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42">
         <v>37</v>
@@ -2519,19 +2801,19 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" t="s">
         <v>187</v>
       </c>
-      <c r="F42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>189</v>
-      </c>
-      <c r="I42" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2539,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C43">
         <v>19</v>
@@ -2548,19 +2830,19 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
+      </c>
+      <c r="H43" t="s">
         <v>193</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>194</v>
-      </c>
-      <c r="G43">
-        <v>999</v>
-      </c>
-      <c r="H43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2568,7 +2850,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44">
         <v>22</v>
@@ -2577,19 +2859,19 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44">
+        <v>999</v>
+      </c>
+      <c r="H44" t="s">
         <v>198</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>199</v>
-      </c>
-      <c r="G44">
-        <v>999</v>
-      </c>
-      <c r="H44" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2597,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45">
         <v>76</v>
@@ -2606,19 +2888,19 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45">
+        <v>999</v>
+      </c>
+      <c r="H45" t="s">
         <v>203</v>
       </c>
-      <c r="F45" t="s">
-        <v>206</v>
-      </c>
-      <c r="G45">
-        <v>999</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>205</v>
-      </c>
-      <c r="I45" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2626,7 +2908,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>72</v>
@@ -2635,19 +2917,19 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46">
+        <v>999</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
         <v>208</v>
-      </c>
-      <c r="F46" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46">
-        <v>999</v>
-      </c>
-      <c r="H46" t="s">
-        <v>209</v>
-      </c>
-      <c r="I46" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2655,7 +2937,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C47">
         <v>67</v>
@@ -2664,19 +2946,19 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G47">
         <v>999</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2684,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C48">
         <v>67</v>
@@ -2693,19 +2975,19 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48">
+        <v>999</v>
+      </c>
+      <c r="H48" t="s">
         <v>215</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>216</v>
-      </c>
-      <c r="G48">
-        <v>999</v>
-      </c>
-      <c r="H48" t="s">
-        <v>217</v>
-      </c>
-      <c r="I48" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2713,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49">
         <v>56</v>
@@ -2722,19 +3004,19 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" t="s">
         <v>220</v>
       </c>
-      <c r="F49" t="s">
-        <v>221</v>
-      </c>
-      <c r="G49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H49" t="s">
-        <v>222</v>
-      </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2742,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C50">
         <v>57</v>
@@ -2751,19 +3033,19 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50">
+        <v>999</v>
+      </c>
+      <c r="H50" t="s">
         <v>225</v>
       </c>
-      <c r="F50" t="s">
-        <v>226</v>
-      </c>
-      <c r="G50">
-        <v>999</v>
-      </c>
-      <c r="H50" t="s">
-        <v>227</v>
-      </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2771,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -2780,19 +3062,19 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51">
+        <v>999</v>
+      </c>
+      <c r="H51" t="s">
         <v>228</v>
       </c>
-      <c r="F51" t="s">
-        <v>229</v>
-      </c>
-      <c r="G51">
-        <v>999</v>
-      </c>
-      <c r="H51" t="s">
-        <v>230</v>
-      </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2800,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C52">
         <v>49</v>
@@ -2809,19 +3091,19 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52">
+        <v>999</v>
+      </c>
+      <c r="H52" t="s">
         <v>231</v>
       </c>
-      <c r="F52" t="s">
-        <v>232</v>
-      </c>
-      <c r="G52">
-        <v>999</v>
-      </c>
-      <c r="H52" t="s">
-        <v>233</v>
-      </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2829,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C53">
         <v>35</v>
@@ -2838,19 +3120,19 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53">
+        <v>999</v>
+      </c>
+      <c r="H53" t="s">
         <v>235</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>236</v>
-      </c>
-      <c r="G53">
-        <v>999</v>
-      </c>
-      <c r="H53" t="s">
-        <v>237</v>
-      </c>
-      <c r="I53" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2858,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54">
         <v>39</v>
@@ -2867,19 +3149,19 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
         <v>239</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>240</v>
-      </c>
-      <c r="G54">
-        <v>999</v>
-      </c>
-      <c r="H54" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2887,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -2896,19 +3178,19 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" t="s">
         <v>243</v>
       </c>
-      <c r="F55" t="s">
-        <v>245</v>
-      </c>
       <c r="G55">
         <v>999</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2916,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -2925,19 +3207,19 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56">
+        <v>999</v>
+      </c>
+      <c r="H56" t="s">
         <v>246</v>
       </c>
-      <c r="F56" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56">
-        <v>999</v>
-      </c>
-      <c r="H56" t="s">
-        <v>248</v>
-      </c>
       <c r="I56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2945,7 +3227,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C57">
         <v>101</v>
@@ -2954,19 +3236,19 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57">
+        <v>999</v>
+      </c>
+      <c r="H57" t="s">
         <v>250</v>
       </c>
-      <c r="F57" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57">
-        <v>999</v>
-      </c>
-      <c r="H57" t="s">
-        <v>252</v>
-      </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2974,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C58">
         <v>99</v>
@@ -2983,19 +3265,19 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
         <v>254</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>255</v>
       </c>
-      <c r="G58" t="s">
-        <v>256</v>
-      </c>
-      <c r="H58" t="s">
-        <v>257</v>
-      </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3003,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C59">
         <v>95</v>
@@ -3012,19 +3294,19 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
+        <v>256</v>
+      </c>
+      <c r="F59" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" t="s">
         <v>258</v>
       </c>
-      <c r="F59" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" t="s">
-        <v>263</v>
-      </c>
-      <c r="H59" t="s">
-        <v>260</v>
-      </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3032,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C60">
         <v>95</v>
@@ -3041,19 +3323,19 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G60">
         <v>999</v>
       </c>
       <c r="H60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3061,7 +3343,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C61">
         <v>89</v>
@@ -3070,19 +3352,19 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" t="s">
+        <v>263</v>
+      </c>
+      <c r="G61" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" t="s">
         <v>264</v>
       </c>
-      <c r="F61" t="s">
-        <v>265</v>
-      </c>
-      <c r="G61" t="s">
-        <v>267</v>
-      </c>
-      <c r="H61" t="s">
-        <v>266</v>
-      </c>
       <c r="I61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3090,7 +3372,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C62">
         <v>70</v>
@@ -3099,19 +3381,19 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62">
+        <v>999</v>
+      </c>
+      <c r="H62" t="s">
         <v>269</v>
       </c>
-      <c r="F62" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62">
-        <v>999</v>
-      </c>
-      <c r="H62" t="s">
-        <v>271</v>
-      </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3119,7 +3401,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C63">
         <v>66</v>
@@ -3128,19 +3410,19 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63">
+        <v>999</v>
+      </c>
+      <c r="H63" t="s">
         <v>274</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>275</v>
-      </c>
-      <c r="G63">
-        <v>999</v>
-      </c>
-      <c r="H63" t="s">
-        <v>276</v>
-      </c>
-      <c r="I63" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3148,7 +3430,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64">
         <v>24</v>
@@ -3157,19 +3439,19 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
+        <v>277</v>
+      </c>
+      <c r="F64" t="s">
+        <v>278</v>
+      </c>
+      <c r="G64">
+        <v>999</v>
+      </c>
+      <c r="H64" t="s">
         <v>279</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>280</v>
-      </c>
-      <c r="G64">
-        <v>999</v>
-      </c>
-      <c r="H64" t="s">
-        <v>281</v>
-      </c>
-      <c r="I64" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3177,7 +3459,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C65">
         <v>23</v>
@@ -3186,19 +3468,19 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G65">
         <v>999</v>
       </c>
       <c r="H65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3206,7 +3488,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C66">
         <v>51</v>
@@ -3215,19 +3497,19 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
+        <v>285</v>
+      </c>
+      <c r="F66" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66">
+        <v>999</v>
+      </c>
+      <c r="H66" t="s">
         <v>287</v>
       </c>
-      <c r="F66" t="s">
-        <v>288</v>
-      </c>
-      <c r="G66">
-        <v>999</v>
-      </c>
-      <c r="H66" t="s">
-        <v>289</v>
-      </c>
       <c r="I66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3235,7 +3517,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C67">
         <v>34</v>
@@ -3244,19 +3526,1034 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67">
+        <v>999</v>
+      </c>
+      <c r="H67" t="s">
         <v>291</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>292</v>
       </c>
-      <c r="G67">
-        <v>999</v>
-      </c>
-      <c r="H67" t="s">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>999</v>
+      </c>
+      <c r="C68">
+        <v>999</v>
+      </c>
+      <c r="D68">
+        <v>999</v>
+      </c>
+      <c r="E68" t="s">
         <v>293</v>
       </c>
-      <c r="I67" t="s">
+      <c r="F68" t="s">
         <v>294</v>
+      </c>
+      <c r="G68">
+        <v>999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>304</v>
+      </c>
+      <c r="I68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>999</v>
+      </c>
+      <c r="C69">
+        <v>999</v>
+      </c>
+      <c r="D69">
+        <v>999</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" t="s">
+        <v>300</v>
+      </c>
+      <c r="I69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>999</v>
+      </c>
+      <c r="C70">
+        <v>999</v>
+      </c>
+      <c r="D70">
+        <v>999</v>
+      </c>
+      <c r="E70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F70" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70">
+        <v>999</v>
+      </c>
+      <c r="H70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>999</v>
+      </c>
+      <c r="C71">
+        <v>999</v>
+      </c>
+      <c r="D71">
+        <v>999</v>
+      </c>
+      <c r="E71" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" t="s">
+        <v>306</v>
+      </c>
+      <c r="G71">
+        <v>999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>999</v>
+      </c>
+      <c r="C72">
+        <v>999</v>
+      </c>
+      <c r="D72">
+        <v>999</v>
+      </c>
+      <c r="E72" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72">
+        <v>999</v>
+      </c>
+      <c r="H72" t="s">
+        <v>307</v>
+      </c>
+      <c r="I72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>999</v>
+      </c>
+      <c r="C73">
+        <v>999</v>
+      </c>
+      <c r="D73">
+        <v>999</v>
+      </c>
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73">
+        <v>999</v>
+      </c>
+      <c r="H73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>999</v>
+      </c>
+      <c r="C74">
+        <v>999</v>
+      </c>
+      <c r="D74">
+        <v>999</v>
+      </c>
+      <c r="E74" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G74">
+        <v>999</v>
+      </c>
+      <c r="H74" t="s">
+        <v>307</v>
+      </c>
+      <c r="I74">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>999</v>
+      </c>
+      <c r="C75">
+        <v>999</v>
+      </c>
+      <c r="D75">
+        <v>999</v>
+      </c>
+      <c r="E75" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75">
+        <v>999</v>
+      </c>
+      <c r="H75" t="s">
+        <v>304</v>
+      </c>
+      <c r="I75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>999</v>
+      </c>
+      <c r="C76">
+        <v>999</v>
+      </c>
+      <c r="D76">
+        <v>999</v>
+      </c>
+      <c r="E76" t="s">
+        <v>316</v>
+      </c>
+      <c r="F76" t="s">
+        <v>317</v>
+      </c>
+      <c r="G76">
+        <v>999</v>
+      </c>
+      <c r="H76" t="s">
+        <v>307</v>
+      </c>
+      <c r="I76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>999</v>
+      </c>
+      <c r="C77">
+        <v>999</v>
+      </c>
+      <c r="D77">
+        <v>999</v>
+      </c>
+      <c r="E77" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" t="s">
+        <v>304</v>
+      </c>
+      <c r="I77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>999</v>
+      </c>
+      <c r="C78">
+        <v>999</v>
+      </c>
+      <c r="D78">
+        <v>999</v>
+      </c>
+      <c r="E78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F78" t="s">
+        <v>323</v>
+      </c>
+      <c r="G78" t="s">
+        <v>325</v>
+      </c>
+      <c r="H78" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79">
+        <v>999</v>
+      </c>
+      <c r="C79">
+        <v>999</v>
+      </c>
+      <c r="D79">
+        <v>999</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" t="s">
+        <v>327</v>
+      </c>
+      <c r="G79">
+        <v>999</v>
+      </c>
+      <c r="H79" t="s">
+        <v>328</v>
+      </c>
+      <c r="I79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>999</v>
+      </c>
+      <c r="C80">
+        <v>999</v>
+      </c>
+      <c r="D80">
+        <v>999</v>
+      </c>
+      <c r="E80" t="s">
+        <v>329</v>
+      </c>
+      <c r="F80" t="s">
+        <v>330</v>
+      </c>
+      <c r="G80">
+        <v>999</v>
+      </c>
+      <c r="H80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>999</v>
+      </c>
+      <c r="C81">
+        <v>999</v>
+      </c>
+      <c r="D81">
+        <v>999</v>
+      </c>
+      <c r="E81" t="s">
+        <v>332</v>
+      </c>
+      <c r="F81" t="s">
+        <v>333</v>
+      </c>
+      <c r="G81">
+        <v>999</v>
+      </c>
+      <c r="H81" t="s">
+        <v>307</v>
+      </c>
+      <c r="I81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>999</v>
+      </c>
+      <c r="C82">
+        <v>999</v>
+      </c>
+      <c r="D82">
+        <v>999</v>
+      </c>
+      <c r="E82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82">
+        <v>999</v>
+      </c>
+      <c r="H82" t="s">
+        <v>336</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>999</v>
+      </c>
+      <c r="C83">
+        <v>999</v>
+      </c>
+      <c r="D83">
+        <v>999</v>
+      </c>
+      <c r="E83" t="s">
+        <v>337</v>
+      </c>
+      <c r="F83" t="s">
+        <v>338</v>
+      </c>
+      <c r="G83">
+        <v>999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>307</v>
+      </c>
+      <c r="I83" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>999</v>
+      </c>
+      <c r="C84">
+        <v>999</v>
+      </c>
+      <c r="D84">
+        <v>999</v>
+      </c>
+      <c r="E84" t="s">
+        <v>339</v>
+      </c>
+      <c r="F84" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84">
+        <v>999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>999</v>
+      </c>
+      <c r="C85">
+        <v>999</v>
+      </c>
+      <c r="D85">
+        <v>999</v>
+      </c>
+      <c r="E85" t="s">
+        <v>341</v>
+      </c>
+      <c r="F85" t="s">
+        <v>342</v>
+      </c>
+      <c r="G85">
+        <v>999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>307</v>
+      </c>
+      <c r="I85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>999</v>
+      </c>
+      <c r="C86">
+        <v>999</v>
+      </c>
+      <c r="D86">
+        <v>999</v>
+      </c>
+      <c r="E86" t="s">
+        <v>344</v>
+      </c>
+      <c r="F86" t="s">
+        <v>345</v>
+      </c>
+      <c r="G86">
+        <v>999</v>
+      </c>
+      <c r="H86" t="s">
+        <v>318</v>
+      </c>
+      <c r="I86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>999</v>
+      </c>
+      <c r="C87">
+        <v>999</v>
+      </c>
+      <c r="D87">
+        <v>999</v>
+      </c>
+      <c r="E87" t="s">
+        <v>347</v>
+      </c>
+      <c r="F87" t="s">
+        <v>348</v>
+      </c>
+      <c r="G87" t="s">
+        <v>349</v>
+      </c>
+      <c r="H87" t="s">
+        <v>307</v>
+      </c>
+      <c r="I87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>999</v>
+      </c>
+      <c r="C88">
+        <v>999</v>
+      </c>
+      <c r="D88">
+        <v>999</v>
+      </c>
+      <c r="E88" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88">
+        <v>999</v>
+      </c>
+      <c r="H88" t="s">
+        <v>307</v>
+      </c>
+      <c r="I88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>999</v>
+      </c>
+      <c r="C89">
+        <v>999</v>
+      </c>
+      <c r="D89">
+        <v>999</v>
+      </c>
+      <c r="E89" t="s">
+        <v>351</v>
+      </c>
+      <c r="F89" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89">
+        <v>999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>304</v>
+      </c>
+      <c r="I89" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>999</v>
+      </c>
+      <c r="C90">
+        <v>999</v>
+      </c>
+      <c r="D90">
+        <v>999</v>
+      </c>
+      <c r="E90" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90">
+        <v>999</v>
+      </c>
+      <c r="H90" t="s">
+        <v>307</v>
+      </c>
+      <c r="I90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>999</v>
+      </c>
+      <c r="C91">
+        <v>999</v>
+      </c>
+      <c r="D91">
+        <v>999</v>
+      </c>
+      <c r="E91" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" t="s">
+        <v>357</v>
+      </c>
+      <c r="G91">
+        <v>999</v>
+      </c>
+      <c r="H91" t="s">
+        <v>307</v>
+      </c>
+      <c r="I91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <v>999</v>
+      </c>
+      <c r="C92">
+        <v>999</v>
+      </c>
+      <c r="D92">
+        <v>999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>358</v>
+      </c>
+      <c r="F92" t="s">
+        <v>359</v>
+      </c>
+      <c r="G92">
+        <v>999</v>
+      </c>
+      <c r="H92" t="s">
+        <v>304</v>
+      </c>
+      <c r="I92">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>999</v>
+      </c>
+      <c r="C93">
+        <v>999</v>
+      </c>
+      <c r="D93">
+        <v>999</v>
+      </c>
+      <c r="E93" t="s">
+        <v>360</v>
+      </c>
+      <c r="F93" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93" t="s">
+        <v>307</v>
+      </c>
+      <c r="I93">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <v>999</v>
+      </c>
+      <c r="C94">
+        <v>999</v>
+      </c>
+      <c r="D94">
+        <v>999</v>
+      </c>
+      <c r="E94" t="s">
+        <v>363</v>
+      </c>
+      <c r="F94" t="s">
+        <v>364</v>
+      </c>
+      <c r="G94">
+        <v>999</v>
+      </c>
+      <c r="H94" t="s">
+        <v>307</v>
+      </c>
+      <c r="I94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>999</v>
+      </c>
+      <c r="C95">
+        <v>999</v>
+      </c>
+      <c r="D95">
+        <v>999</v>
+      </c>
+      <c r="E95" t="s">
+        <v>366</v>
+      </c>
+      <c r="F95" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95">
+        <v>999</v>
+      </c>
+      <c r="H95" t="s">
+        <v>307</v>
+      </c>
+      <c r="I95">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>999</v>
+      </c>
+      <c r="C96">
+        <v>999</v>
+      </c>
+      <c r="D96">
+        <v>999</v>
+      </c>
+      <c r="E96" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" t="s">
+        <v>369</v>
+      </c>
+      <c r="G96">
+        <v>999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>368</v>
+      </c>
+      <c r="I96">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>999</v>
+      </c>
+      <c r="C97">
+        <v>999</v>
+      </c>
+      <c r="D97">
+        <v>999</v>
+      </c>
+      <c r="E97" t="s">
+        <v>371</v>
+      </c>
+      <c r="F97" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97">
+        <v>999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>373</v>
+      </c>
+      <c r="I97">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>999</v>
+      </c>
+      <c r="C98">
+        <v>999</v>
+      </c>
+      <c r="D98">
+        <v>999</v>
+      </c>
+      <c r="E98" t="s">
+        <v>374</v>
+      </c>
+      <c r="F98" t="s">
+        <v>375</v>
+      </c>
+      <c r="G98">
+        <v>999</v>
+      </c>
+      <c r="H98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I98">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99">
+        <v>999</v>
+      </c>
+      <c r="C99">
+        <v>999</v>
+      </c>
+      <c r="D99">
+        <v>999</v>
+      </c>
+      <c r="E99" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99">
+        <v>999</v>
+      </c>
+      <c r="H99" t="s">
+        <v>304</v>
+      </c>
+      <c r="I99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>999</v>
+      </c>
+      <c r="C100">
+        <v>999</v>
+      </c>
+      <c r="D100">
+        <v>999</v>
+      </c>
+      <c r="E100" t="s">
+        <v>379</v>
+      </c>
+      <c r="F100" t="s">
+        <v>380</v>
+      </c>
+      <c r="G100" t="s">
+        <v>381</v>
+      </c>
+      <c r="H100" t="s">
+        <v>382</v>
+      </c>
+      <c r="I100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>999</v>
+      </c>
+      <c r="C101">
+        <v>999</v>
+      </c>
+      <c r="D101">
+        <v>999</v>
+      </c>
+      <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" t="s">
+        <v>384</v>
+      </c>
+      <c r="G101">
+        <v>999</v>
+      </c>
+      <c r="H101" t="s">
+        <v>368</v>
+      </c>
+      <c r="I101" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>999</v>
+      </c>
+      <c r="C102">
+        <v>999</v>
+      </c>
+      <c r="D102">
+        <v>999</v>
+      </c>
+      <c r="E102" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" t="s">
+        <v>386</v>
+      </c>
+      <c r="G102" t="s">
+        <v>387</v>
+      </c>
+      <c r="H102" t="s">
+        <v>388</v>
+      </c>
+      <c r="I102" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Index_Ref/JR_Index_Ref.xlsx
+++ b/Index_Ref/JR_Index_Ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BD6FED-8D3A-A241-AFE2-EC1F803F4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF45ED-42CB-DA47-9FAF-66F884C06ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14780" windowHeight="15960" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="432">
   <si>
     <t>Bearbeiter/in</t>
   </si>
@@ -65,21 +65,9 @@
     <t>Provinz</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>a'</t>
   </si>
   <si>
-    <t>Mappe_01_0001</t>
-  </si>
-  <si>
-    <t>Vilchband</t>
-  </si>
-  <si>
-    <t>Mosbach</t>
-  </si>
-  <si>
     <t>Baden</t>
   </si>
   <si>
@@ -1203,6 +1191,147 @@
   </si>
   <si>
     <t>Zips {auf S. 1}, Zipser-Neudorf {auf S. 4}</t>
+  </si>
+  <si>
+    <t>XXI_04_0050</t>
+  </si>
+  <si>
+    <t>Kloster</t>
+  </si>
+  <si>
+    <t>Bez. Turc̆. [?] Martin</t>
+  </si>
+  <si>
+    <t>Sp[?]hinsal: Promnitz-D[?]graben</t>
+  </si>
+  <si>
+    <t>XXI_04_0051</t>
+  </si>
+  <si>
+    <t>Fundstollen</t>
+  </si>
+  <si>
+    <t>St. Proben {S. 1}. Bremnitz-[Durtsch] Proben {S. 4}</t>
+  </si>
+  <si>
+    <t>XXI_04_0052</t>
+  </si>
+  <si>
+    <t>Schmiedshau</t>
+  </si>
+  <si>
+    <t>Slowakische Republik</t>
+  </si>
+  <si>
+    <t>Priewitz &lt;/Deutsch-Probener Sprachinsel/&gt;</t>
+  </si>
+  <si>
+    <t>XXI_04_0053</t>
+  </si>
+  <si>
+    <t>Gaidel-Gajdel</t>
+  </si>
+  <si>
+    <t>Prievidza</t>
+  </si>
+  <si>
+    <t>XXI_04_0054</t>
+  </si>
+  <si>
+    <t>Deutsch-Proben</t>
+  </si>
+  <si>
+    <t>XXI_04_0055</t>
+  </si>
+  <si>
+    <t>Bettelsdorf</t>
+  </si>
+  <si>
+    <t>St-Proben {S.1}, R[emn]itz-Deutschproben</t>
+  </si>
+  <si>
+    <t>XXI_04_0056</t>
+  </si>
+  <si>
+    <t>Zecke</t>
+  </si>
+  <si>
+    <t>XXI_04_0057</t>
+  </si>
+  <si>
+    <t>Benesellau</t>
+  </si>
+  <si>
+    <t>XXI_04_0058</t>
+  </si>
+  <si>
+    <t>Hedwig</t>
+  </si>
+  <si>
+    <t>St-Proben</t>
+  </si>
+  <si>
+    <t>St-Proben {S.1}, Turc̆. Sv. Martin</t>
+  </si>
+  <si>
+    <t>Land Slowakei</t>
+  </si>
+  <si>
+    <t>XXI_04_0059</t>
+  </si>
+  <si>
+    <t>Kremnitz</t>
+  </si>
+  <si>
+    <t>Bürgersch[?] in Oberstuben</t>
+  </si>
+  <si>
+    <t>XXI_04_0060</t>
+  </si>
+  <si>
+    <t>Glaserhau</t>
+  </si>
+  <si>
+    <t>XXI_04_0061</t>
+  </si>
+  <si>
+    <t>Unterturz</t>
+  </si>
+  <si>
+    <t>XXI_04_0062</t>
+  </si>
+  <si>
+    <t>Oberturz</t>
+  </si>
+  <si>
+    <t>XXI_04_0063</t>
+  </si>
+  <si>
+    <t>Unter-Drz̆kovce</t>
+  </si>
+  <si>
+    <t>Dolnie Drz̆kovce</t>
+  </si>
+  <si>
+    <t>Bànovce w. Bebr.</t>
+  </si>
+  <si>
+    <t>Slowakei &lt;[Str]eudeutschtum&gt;</t>
+  </si>
+  <si>
+    <t>XXI_04_0064</t>
+  </si>
+  <si>
+    <t>Krickerhau</t>
+  </si>
+  <si>
+    <t>XXI_04_0065</t>
+  </si>
+  <si>
+    <t>Neuhäu</t>
+  </si>
+  <si>
+    <t>Sankt-Proben Kremnitz</t>
   </si>
 </sst>
 </file>
@@ -1592,11 +1721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1632,132 +1761,132 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2">
+        <v>999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>999</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3">
-        <v>999</v>
-      </c>
       <c r="H3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
-      </c>
-      <c r="I4">
-        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>999</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="G5">
-        <v>999</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1772,18 +1901,18 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1801,53 +1930,53 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>999</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
@@ -1856,21 +1985,21 @@
         <v>999</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1888,21 +2017,21 @@
         <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -1922,222 +2051,222 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
       </c>
-      <c r="G12">
-        <v>999</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
         <v>57</v>
       </c>
-      <c r="C13">
+      <c r="I13" t="s">
         <v>22</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>999</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>60</v>
       </c>
       <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>999</v>
+      </c>
+      <c r="C15">
+        <v>999</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15">
+        <v>999</v>
+      </c>
+      <c r="H15" t="s">
         <v>65</v>
       </c>
-      <c r="G15">
-        <v>999</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>999</v>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>999</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16">
         <v>999</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>999</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>64</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18">
         <v>999</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
         <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
       </c>
       <c r="G19">
         <v>999</v>
@@ -2151,22 +2280,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
         <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
       </c>
       <c r="G20">
         <v>999</v>
@@ -2180,16 +2309,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
@@ -2197,28 +2326,28 @@
       <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="G21">
-        <v>999</v>
+      <c r="G21" t="s">
+        <v>93</v>
       </c>
       <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="I21" t="s">
-        <v>93</v>
+      <c r="I21">
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>94</v>
@@ -2226,34 +2355,34 @@
       <c r="F22" t="s">
         <v>95</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22">
+        <v>999</v>
+      </c>
+      <c r="H22" t="s">
         <v>97</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>96</v>
-      </c>
-      <c r="I22">
-        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>999</v>
@@ -2262,21 +2391,21 @@
         <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
         <v>103</v>
@@ -2296,48 +2425,48 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25">
         <v>999</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
         <v>113</v>
@@ -2346,18 +2475,18 @@
         <v>999</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>36</v>
@@ -2366,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
         <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
       </c>
       <c r="G27">
         <v>999</v>
@@ -2377,25 +2506,25 @@
       <c r="H27" t="s">
         <v>119</v>
       </c>
-      <c r="I27" t="s">
-        <v>120</v>
+      <c r="I27">
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>999</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>999</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>999</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
         <v>122</v>
@@ -2404,15 +2533,15 @@
         <v>999</v>
       </c>
       <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" t="s">
         <v>123</v>
-      </c>
-      <c r="I28">
-        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>999</v>
@@ -2424,10 +2553,10 @@
         <v>999</v>
       </c>
       <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
         <v>124</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
       </c>
       <c r="G29">
         <v>999</v>
@@ -2441,86 +2570,86 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>999</v>
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
       </c>
       <c r="C30">
-        <v>999</v>
+        <v>74</v>
       </c>
       <c r="D30">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
         <v>130</v>
       </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
       <c r="G30">
         <v>999</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31">
-        <v>999</v>
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32">
+        <v>999</v>
+      </c>
+      <c r="H32" t="s">
         <v>141</v>
-      </c>
-      <c r="H32" t="s">
-        <v>140</v>
       </c>
       <c r="I32" t="s">
         <v>142</v>
@@ -2528,65 +2657,65 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="G33">
-        <v>999</v>
-      </c>
-      <c r="H33" t="s">
-        <v>145</v>
-      </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>999</v>
+      </c>
+      <c r="C34">
+        <v>999</v>
+      </c>
+      <c r="D34">
+        <v>999</v>
+      </c>
+      <c r="E34" t="s">
         <v>148</v>
       </c>
-      <c r="C34">
-        <v>60</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>149</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34">
+        <v>999</v>
+      </c>
+      <c r="H34" t="s">
         <v>150</v>
       </c>
-      <c r="G34">
-        <v>999</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>151</v>
-      </c>
-      <c r="I34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>999</v>
@@ -2615,7 +2744,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>999</v>
@@ -2632,19 +2761,19 @@
       <c r="F36" t="s">
         <v>157</v>
       </c>
-      <c r="G36">
-        <v>999</v>
+      <c r="G36" t="s">
+        <v>159</v>
       </c>
       <c r="H36" t="s">
         <v>158</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>999</v>
@@ -2656,242 +2785,242 @@
         <v>999</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
         <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>999</v>
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
         <v>167</v>
       </c>
-      <c r="H38" t="s">
-        <v>168</v>
-      </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F39" t="s">
         <v>172</v>
       </c>
       <c r="G39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" t="s">
         <v>173</v>
       </c>
-      <c r="H39" t="s">
-        <v>171</v>
-      </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C40">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40">
+        <v>999</v>
+      </c>
+      <c r="H40" t="s">
         <v>178</v>
       </c>
-      <c r="H40" t="s">
-        <v>177</v>
-      </c>
       <c r="I40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41">
-        <v>999</v>
+        <v>182</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
       </c>
       <c r="H41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" t="s">
         <v>188</v>
       </c>
+      <c r="G42">
+        <v>999</v>
+      </c>
       <c r="H42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G43">
         <v>999</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G44">
         <v>999</v>
       </c>
       <c r="H44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="C45">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45">
         <v>999</v>
@@ -2900,27 +3029,27 @@
         <v>203</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="C46">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>206</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G46">
         <v>999</v>
@@ -2929,15 +3058,15 @@
         <v>207</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47">
         <v>67</v>
@@ -2946,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" t="s">
         <v>210</v>
-      </c>
-      <c r="F47" t="s">
-        <v>202</v>
       </c>
       <c r="G47">
         <v>999</v>
@@ -2958,134 +3087,134 @@
         <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C48">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48">
-        <v>999</v>
+        <v>215</v>
+      </c>
+      <c r="G48" t="s">
+        <v>217</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C49">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49">
+        <v>999</v>
+      </c>
+      <c r="H49" t="s">
         <v>221</v>
       </c>
-      <c r="H49" t="s">
-        <v>220</v>
-      </c>
       <c r="I49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
         <v>222</v>
       </c>
-      <c r="C50">
-        <v>57</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>223</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50">
+        <v>999</v>
+      </c>
+      <c r="H50" t="s">
         <v>224</v>
       </c>
-      <c r="G50">
-        <v>999</v>
-      </c>
-      <c r="H50" t="s">
-        <v>225</v>
-      </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" t="s">
         <v>226</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51">
+        <v>999</v>
+      </c>
+      <c r="H51" t="s">
         <v>227</v>
       </c>
-      <c r="G51">
-        <v>999</v>
-      </c>
-      <c r="H51" t="s">
-        <v>228</v>
-      </c>
       <c r="I51" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -3103,21 +3232,21 @@
         <v>231</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
         <v>233</v>
@@ -3137,51 +3266,51 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
         <v>237</v>
       </c>
       <c r="F54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54">
+        <v>999</v>
+      </c>
+      <c r="H54" t="s">
         <v>238</v>
       </c>
-      <c r="G54">
-        <v>999</v>
-      </c>
-      <c r="H54" t="s">
-        <v>239</v>
-      </c>
       <c r="I54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" t="s">
         <v>241</v>
-      </c>
-      <c r="F55" t="s">
-        <v>243</v>
       </c>
       <c r="G55">
         <v>999</v>
@@ -3190,21 +3319,21 @@
         <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>244</v>
@@ -3219,21 +3348,21 @@
         <v>246</v>
       </c>
       <c r="I56" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>247</v>
       </c>
       <c r="C57">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>248</v>
@@ -3241,28 +3370,28 @@
       <c r="F57" t="s">
         <v>249</v>
       </c>
-      <c r="G57">
-        <v>999</v>
+      <c r="G57" t="s">
+        <v>250</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C58">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
         <v>252</v>
@@ -3271,21 +3400,21 @@
         <v>253</v>
       </c>
       <c r="G58" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" t="s">
         <v>254</v>
       </c>
-      <c r="H58" t="s">
-        <v>255</v>
-      </c>
       <c r="I58" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C59">
         <v>95</v>
@@ -3294,204 +3423,204 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" t="s">
         <v>256</v>
       </c>
-      <c r="F59" t="s">
-        <v>257</v>
-      </c>
-      <c r="G59" t="s">
-        <v>261</v>
+      <c r="G59">
+        <v>999</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C60">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60" t="s">
         <v>259</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H60" t="s">
         <v>260</v>
       </c>
-      <c r="G60">
-        <v>999</v>
-      </c>
-      <c r="H60" t="s">
-        <v>258</v>
-      </c>
       <c r="I60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C61">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F61" t="s">
-        <v>263</v>
-      </c>
-      <c r="G61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61">
+        <v>999</v>
+      </c>
+      <c r="H61" t="s">
         <v>265</v>
       </c>
-      <c r="H61" t="s">
-        <v>264</v>
-      </c>
       <c r="I61" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G62">
         <v>999</v>
       </c>
       <c r="H62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G63">
         <v>999</v>
       </c>
       <c r="H63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G64">
         <v>999</v>
       </c>
       <c r="H64" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" t="s">
         <v>282</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65">
+        <v>999</v>
+      </c>
+      <c r="H65" t="s">
         <v>283</v>
       </c>
-      <c r="G65">
-        <v>999</v>
-      </c>
-      <c r="H65" t="s">
-        <v>279</v>
-      </c>
       <c r="I65" t="s">
-        <v>280</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
         <v>284</v>
       </c>
       <c r="C66">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3509,21 +3638,21 @@
         <v>287</v>
       </c>
       <c r="I66" t="s">
-        <v>75</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>288</v>
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>999</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>999</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E67" t="s">
         <v>289</v>
@@ -3535,15 +3664,15 @@
         <v>999</v>
       </c>
       <c r="H67" t="s">
+        <v>300</v>
+      </c>
+      <c r="I67" t="s">
         <v>291</v>
-      </c>
-      <c r="I67" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>999</v>
@@ -3555,24 +3684,24 @@
         <v>999</v>
       </c>
       <c r="E68" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" t="s">
         <v>293</v>
       </c>
-      <c r="F68" t="s">
-        <v>294</v>
-      </c>
-      <c r="G68">
-        <v>999</v>
+      <c r="G68" t="s">
+        <v>297</v>
       </c>
       <c r="H68" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I68" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>999</v>
@@ -3584,24 +3713,24 @@
         <v>999</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
-        <v>297</v>
-      </c>
-      <c r="G69" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="G69">
+        <v>999</v>
       </c>
       <c r="H69" t="s">
         <v>300</v>
       </c>
       <c r="I69" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>999</v>
@@ -3613,24 +3742,24 @@
         <v>999</v>
       </c>
       <c r="E70" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70" t="s">
         <v>302</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70">
+        <v>999</v>
+      </c>
+      <c r="H70" t="s">
         <v>303</v>
       </c>
-      <c r="G70">
-        <v>999</v>
-      </c>
-      <c r="H70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I70" t="s">
-        <v>295</v>
+      <c r="I70">
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>999</v>
@@ -3642,24 +3771,24 @@
         <v>999</v>
       </c>
       <c r="E71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" t="s">
         <v>305</v>
       </c>
-      <c r="F71" t="s">
-        <v>306</v>
-      </c>
       <c r="G71">
         <v>999</v>
       </c>
       <c r="H71" t="s">
-        <v>307</v>
-      </c>
-      <c r="I71">
-        <v>999</v>
+        <v>303</v>
+      </c>
+      <c r="I71" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B72">
         <v>999</v>
@@ -3671,24 +3800,24 @@
         <v>999</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G72">
         <v>999</v>
       </c>
       <c r="H72" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I72" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>999</v>
@@ -3700,24 +3829,24 @@
         <v>999</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G73">
         <v>999</v>
       </c>
       <c r="H73" t="s">
-        <v>304</v>
-      </c>
-      <c r="I73" t="s">
-        <v>295</v>
+        <v>303</v>
+      </c>
+      <c r="I73">
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B74">
         <v>999</v>
@@ -3729,24 +3858,24 @@
         <v>999</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G74">
         <v>999</v>
       </c>
       <c r="H74" t="s">
-        <v>307</v>
-      </c>
-      <c r="I74">
-        <v>999</v>
+        <v>300</v>
+      </c>
+      <c r="I74" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B75">
         <v>999</v>
@@ -3758,24 +3887,24 @@
         <v>999</v>
       </c>
       <c r="E75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F75" t="s">
+        <v>313</v>
+      </c>
+      <c r="G75">
+        <v>999</v>
+      </c>
+      <c r="H75" t="s">
+        <v>303</v>
+      </c>
+      <c r="I75" t="s">
         <v>314</v>
-      </c>
-      <c r="F75" t="s">
-        <v>315</v>
-      </c>
-      <c r="G75">
-        <v>999</v>
-      </c>
-      <c r="H75" t="s">
-        <v>304</v>
-      </c>
-      <c r="I75" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <v>999</v>
@@ -3787,24 +3916,24 @@
         <v>999</v>
       </c>
       <c r="E76" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" t="s">
         <v>316</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>317</v>
       </c>
-      <c r="G76">
-        <v>999</v>
-      </c>
       <c r="H76" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I76" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>999</v>
@@ -3816,24 +3945,24 @@
         <v>999</v>
       </c>
       <c r="E77" t="s">
+        <v>318</v>
+      </c>
+      <c r="F77" t="s">
         <v>319</v>
-      </c>
-      <c r="F77" t="s">
-        <v>320</v>
       </c>
       <c r="G77" t="s">
         <v>321</v>
       </c>
       <c r="H77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I77" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B78">
         <v>999</v>
@@ -3850,19 +3979,19 @@
       <c r="F78" t="s">
         <v>323</v>
       </c>
-      <c r="G78" t="s">
-        <v>325</v>
+      <c r="G78">
+        <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>999</v>
@@ -3874,24 +4003,24 @@
         <v>999</v>
       </c>
       <c r="E79" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" t="s">
         <v>326</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79">
+        <v>999</v>
+      </c>
+      <c r="H79" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" t="s">
         <v>327</v>
-      </c>
-      <c r="G79">
-        <v>999</v>
-      </c>
-      <c r="H79" t="s">
-        <v>328</v>
-      </c>
-      <c r="I79" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B80">
         <v>999</v>
@@ -3903,24 +4032,24 @@
         <v>999</v>
       </c>
       <c r="E80" t="s">
+        <v>328</v>
+      </c>
+      <c r="F80" t="s">
         <v>329</v>
       </c>
-      <c r="F80" t="s">
-        <v>330</v>
-      </c>
       <c r="G80">
         <v>999</v>
       </c>
       <c r="H80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I80" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>999</v>
@@ -3932,24 +4061,24 @@
         <v>999</v>
       </c>
       <c r="E81" t="s">
+        <v>330</v>
+      </c>
+      <c r="F81" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81">
+        <v>999</v>
+      </c>
+      <c r="H81" t="s">
         <v>332</v>
       </c>
-      <c r="F81" t="s">
-        <v>333</v>
-      </c>
-      <c r="G81">
-        <v>999</v>
-      </c>
-      <c r="H81" t="s">
-        <v>307</v>
-      </c>
       <c r="I81" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>999</v>
@@ -3961,24 +4090,24 @@
         <v>999</v>
       </c>
       <c r="E82" t="s">
+        <v>333</v>
+      </c>
+      <c r="F82" t="s">
         <v>334</v>
       </c>
-      <c r="F82" t="s">
-        <v>335</v>
-      </c>
       <c r="G82">
         <v>999</v>
       </c>
       <c r="H82" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="I82" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B83">
         <v>999</v>
@@ -3990,24 +4119,24 @@
         <v>999</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G83">
         <v>999</v>
       </c>
       <c r="H83" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I83" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>999</v>
@@ -4019,24 +4148,24 @@
         <v>999</v>
       </c>
       <c r="E84" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" t="s">
+        <v>338</v>
+      </c>
+      <c r="G84">
+        <v>999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>303</v>
+      </c>
+      <c r="I84" t="s">
         <v>339</v>
-      </c>
-      <c r="F84" t="s">
-        <v>340</v>
-      </c>
-      <c r="G84">
-        <v>999</v>
-      </c>
-      <c r="H84" t="s">
-        <v>304</v>
-      </c>
-      <c r="I84" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>999</v>
@@ -4048,24 +4177,24 @@
         <v>999</v>
       </c>
       <c r="E85" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" t="s">
         <v>341</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85">
+        <v>999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>314</v>
+      </c>
+      <c r="I85" t="s">
         <v>342</v>
-      </c>
-      <c r="G85">
-        <v>999</v>
-      </c>
-      <c r="H85" t="s">
-        <v>307</v>
-      </c>
-      <c r="I85" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B86">
         <v>999</v>
@@ -4077,24 +4206,24 @@
         <v>999</v>
       </c>
       <c r="E86" t="s">
+        <v>343</v>
+      </c>
+      <c r="F86" t="s">
         <v>344</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>345</v>
       </c>
-      <c r="G86">
-        <v>999</v>
-      </c>
       <c r="H86" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="I86" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>999</v>
@@ -4106,24 +4235,24 @@
         <v>999</v>
       </c>
       <c r="E87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F87" t="s">
-        <v>348</v>
-      </c>
-      <c r="G87" t="s">
-        <v>349</v>
+        <v>303</v>
+      </c>
+      <c r="G87">
+        <v>999</v>
       </c>
       <c r="H87" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I87" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>999</v>
@@ -4135,24 +4264,24 @@
         <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F88" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G88">
         <v>999</v>
       </c>
       <c r="H88" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I88" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>999</v>
@@ -4164,24 +4293,24 @@
         <v>999</v>
       </c>
       <c r="E89" t="s">
+        <v>350</v>
+      </c>
+      <c r="F89" t="s">
         <v>351</v>
       </c>
-      <c r="F89" t="s">
-        <v>352</v>
-      </c>
       <c r="G89">
         <v>999</v>
       </c>
       <c r="H89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I89" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B90">
         <v>999</v>
@@ -4193,24 +4322,24 @@
         <v>999</v>
       </c>
       <c r="E90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F90" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G90">
         <v>999</v>
       </c>
       <c r="H90" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I90" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B91">
         <v>999</v>
@@ -4222,24 +4351,24 @@
         <v>999</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F91" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G91">
         <v>999</v>
       </c>
       <c r="H91" t="s">
-        <v>307</v>
-      </c>
-      <c r="I91" t="s">
-        <v>295</v>
+        <v>300</v>
+      </c>
+      <c r="I91">
+        <v>999</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>999</v>
@@ -4251,16 +4380,16 @@
         <v>999</v>
       </c>
       <c r="E92" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" t="s">
+        <v>357</v>
+      </c>
+      <c r="G92" t="s">
         <v>358</v>
       </c>
-      <c r="F92" t="s">
-        <v>359</v>
-      </c>
-      <c r="G92">
-        <v>999</v>
-      </c>
       <c r="H92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I92">
         <v>999</v>
@@ -4268,7 +4397,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>999</v>
@@ -4280,24 +4409,24 @@
         <v>999</v>
       </c>
       <c r="E93" t="s">
+        <v>359</v>
+      </c>
+      <c r="F93" t="s">
         <v>360</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93">
+        <v>999</v>
+      </c>
+      <c r="H93" t="s">
+        <v>303</v>
+      </c>
+      <c r="I93" t="s">
         <v>361</v>
-      </c>
-      <c r="G93" t="s">
-        <v>362</v>
-      </c>
-      <c r="H93" t="s">
-        <v>307</v>
-      </c>
-      <c r="I93">
-        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>999</v>
@@ -4309,24 +4438,24 @@
         <v>999</v>
       </c>
       <c r="E94" t="s">
+        <v>362</v>
+      </c>
+      <c r="F94" t="s">
         <v>363</v>
       </c>
-      <c r="F94" t="s">
-        <v>364</v>
-      </c>
       <c r="G94">
         <v>999</v>
       </c>
       <c r="H94" t="s">
-        <v>307</v>
-      </c>
-      <c r="I94" t="s">
-        <v>365</v>
+        <v>303</v>
+      </c>
+      <c r="I94">
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <v>999</v>
@@ -4341,13 +4470,13 @@
         <v>366</v>
       </c>
       <c r="F95" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G95">
         <v>999</v>
       </c>
       <c r="H95" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="I95">
         <v>999</v>
@@ -4355,7 +4484,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>999</v>
@@ -4367,111 +4496,111 @@
         <v>999</v>
       </c>
       <c r="E96" t="s">
+        <v>367</v>
+      </c>
+      <c r="F96" t="s">
+        <v>368</v>
+      </c>
+      <c r="G96">
+        <v>999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>369</v>
+      </c>
+      <c r="I96">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>999</v>
+      </c>
+      <c r="C97">
+        <v>999</v>
+      </c>
+      <c r="D97">
+        <v>999</v>
+      </c>
+      <c r="E97" t="s">
         <v>370</v>
       </c>
-      <c r="F96" t="s">
-        <v>369</v>
-      </c>
-      <c r="G96">
-        <v>999</v>
-      </c>
-      <c r="H96" t="s">
-        <v>368</v>
-      </c>
-      <c r="I96">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97">
-        <v>999</v>
-      </c>
-      <c r="C97">
-        <v>999</v>
-      </c>
-      <c r="D97">
-        <v>999</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>371</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97">
+        <v>999</v>
+      </c>
+      <c r="H97" t="s">
         <v>372</v>
       </c>
-      <c r="G97">
-        <v>999</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>999</v>
+      </c>
+      <c r="C98">
+        <v>999</v>
+      </c>
+      <c r="D98">
+        <v>999</v>
+      </c>
+      <c r="E98" t="s">
         <v>373</v>
       </c>
-      <c r="I97">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98">
-        <v>999</v>
-      </c>
-      <c r="C98">
-        <v>999</v>
-      </c>
-      <c r="D98">
-        <v>999</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>374</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98">
+        <v>999</v>
+      </c>
+      <c r="H98" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99">
+        <v>999</v>
+      </c>
+      <c r="C99">
+        <v>999</v>
+      </c>
+      <c r="D99">
+        <v>999</v>
+      </c>
+      <c r="E99" t="s">
         <v>375</v>
       </c>
-      <c r="G98">
-        <v>999</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="F99" t="s">
         <v>376</v>
       </c>
-      <c r="I98">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99">
-        <v>999</v>
-      </c>
-      <c r="C99">
-        <v>999</v>
-      </c>
-      <c r="D99">
-        <v>999</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>377</v>
       </c>
-      <c r="F99" t="s">
+      <c r="H99" t="s">
         <v>378</v>
       </c>
-      <c r="G99">
-        <v>999</v>
-      </c>
-      <c r="H99" t="s">
-        <v>304</v>
-      </c>
       <c r="I99" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>999</v>
@@ -4488,48 +4617,48 @@
       <c r="F100" t="s">
         <v>380</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100">
+        <v>999</v>
+      </c>
+      <c r="H100" t="s">
+        <v>364</v>
+      </c>
+      <c r="I100" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>999</v>
+      </c>
+      <c r="C101">
+        <v>999</v>
+      </c>
+      <c r="D101">
+        <v>999</v>
+      </c>
+      <c r="E101" t="s">
         <v>381</v>
       </c>
-      <c r="H100" t="s">
+      <c r="F101" t="s">
         <v>382</v>
       </c>
-      <c r="I100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101">
-        <v>999</v>
-      </c>
-      <c r="C101">
-        <v>999</v>
-      </c>
-      <c r="D101">
-        <v>999</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>383</v>
       </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
         <v>384</v>
       </c>
-      <c r="G101">
-        <v>999</v>
-      </c>
-      <c r="H101" t="s">
-        <v>368</v>
-      </c>
       <c r="I101" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>999</v>
@@ -4546,14 +4675,449 @@
       <c r="F102" t="s">
         <v>386</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102">
+        <v>999</v>
+      </c>
+      <c r="H102" t="s">
         <v>387</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>388</v>
       </c>
-      <c r="I102" t="s">
-        <v>295</v>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>999</v>
+      </c>
+      <c r="C103">
+        <v>999</v>
+      </c>
+      <c r="D103">
+        <v>999</v>
+      </c>
+      <c r="E103" t="s">
+        <v>389</v>
+      </c>
+      <c r="F103" t="s">
+        <v>390</v>
+      </c>
+      <c r="G103">
+        <v>999</v>
+      </c>
+      <c r="H103" t="s">
+        <v>391</v>
+      </c>
+      <c r="I103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>999</v>
+      </c>
+      <c r="C104">
+        <v>999</v>
+      </c>
+      <c r="D104">
+        <v>999</v>
+      </c>
+      <c r="E104" t="s">
+        <v>392</v>
+      </c>
+      <c r="F104" t="s">
+        <v>393</v>
+      </c>
+      <c r="G104">
+        <v>999</v>
+      </c>
+      <c r="H104" t="s">
+        <v>395</v>
+      </c>
+      <c r="I104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105">
+        <v>999</v>
+      </c>
+      <c r="C105">
+        <v>999</v>
+      </c>
+      <c r="D105">
+        <v>999</v>
+      </c>
+      <c r="E105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" t="s">
+        <v>397</v>
+      </c>
+      <c r="G105">
+        <v>999</v>
+      </c>
+      <c r="H105" t="s">
+        <v>398</v>
+      </c>
+      <c r="I105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106">
+        <v>999</v>
+      </c>
+      <c r="C106">
+        <v>999</v>
+      </c>
+      <c r="D106">
+        <v>999</v>
+      </c>
+      <c r="E106" t="s">
+        <v>399</v>
+      </c>
+      <c r="F106" t="s">
+        <v>400</v>
+      </c>
+      <c r="G106">
+        <v>999</v>
+      </c>
+      <c r="H106" t="s">
+        <v>395</v>
+      </c>
+      <c r="I106" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <v>999</v>
+      </c>
+      <c r="C107">
+        <v>999</v>
+      </c>
+      <c r="D107">
+        <v>999</v>
+      </c>
+      <c r="E107" t="s">
+        <v>401</v>
+      </c>
+      <c r="F107" t="s">
+        <v>402</v>
+      </c>
+      <c r="G107">
+        <v>999</v>
+      </c>
+      <c r="H107" t="s">
+        <v>403</v>
+      </c>
+      <c r="I107">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>999</v>
+      </c>
+      <c r="C108">
+        <v>999</v>
+      </c>
+      <c r="D108">
+        <v>999</v>
+      </c>
+      <c r="E108" t="s">
+        <v>404</v>
+      </c>
+      <c r="F108" t="s">
+        <v>405</v>
+      </c>
+      <c r="G108">
+        <v>999</v>
+      </c>
+      <c r="H108" t="s">
+        <v>410</v>
+      </c>
+      <c r="I108">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
+        <v>999</v>
+      </c>
+      <c r="C109">
+        <v>999</v>
+      </c>
+      <c r="D109">
+        <v>999</v>
+      </c>
+      <c r="E109" t="s">
+        <v>406</v>
+      </c>
+      <c r="F109" t="s">
+        <v>407</v>
+      </c>
+      <c r="G109">
+        <v>999</v>
+      </c>
+      <c r="H109" t="s">
+        <v>410</v>
+      </c>
+      <c r="I109">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>999</v>
+      </c>
+      <c r="C110">
+        <v>999</v>
+      </c>
+      <c r="D110">
+        <v>999</v>
+      </c>
+      <c r="E110" t="s">
+        <v>408</v>
+      </c>
+      <c r="F110" t="s">
+        <v>409</v>
+      </c>
+      <c r="G110">
+        <v>999</v>
+      </c>
+      <c r="H110" t="s">
+        <v>411</v>
+      </c>
+      <c r="J110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>999</v>
+      </c>
+      <c r="C111">
+        <v>999</v>
+      </c>
+      <c r="D111">
+        <v>999</v>
+      </c>
+      <c r="E111" t="s">
+        <v>413</v>
+      </c>
+      <c r="F111" t="s">
+        <v>415</v>
+      </c>
+      <c r="G111">
+        <v>999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>414</v>
+      </c>
+      <c r="I111">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>999</v>
+      </c>
+      <c r="C112">
+        <v>999</v>
+      </c>
+      <c r="D112">
+        <v>999</v>
+      </c>
+      <c r="E112" t="s">
+        <v>416</v>
+      </c>
+      <c r="F112" t="s">
+        <v>417</v>
+      </c>
+      <c r="G112">
+        <v>999</v>
+      </c>
+      <c r="H112" t="s">
+        <v>414</v>
+      </c>
+      <c r="I112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113">
+        <v>999</v>
+      </c>
+      <c r="C113">
+        <v>999</v>
+      </c>
+      <c r="D113">
+        <v>999</v>
+      </c>
+      <c r="E113" t="s">
+        <v>418</v>
+      </c>
+      <c r="F113" t="s">
+        <v>419</v>
+      </c>
+      <c r="G113">
+        <v>999</v>
+      </c>
+      <c r="H113" t="s">
+        <v>414</v>
+      </c>
+      <c r="I113">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114">
+        <v>999</v>
+      </c>
+      <c r="C114">
+        <v>999</v>
+      </c>
+      <c r="D114">
+        <v>999</v>
+      </c>
+      <c r="E114" t="s">
+        <v>420</v>
+      </c>
+      <c r="F114" t="s">
+        <v>421</v>
+      </c>
+      <c r="G114">
+        <v>999</v>
+      </c>
+      <c r="H114" t="s">
+        <v>414</v>
+      </c>
+      <c r="I114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>999</v>
+      </c>
+      <c r="C115">
+        <v>999</v>
+      </c>
+      <c r="D115">
+        <v>999</v>
+      </c>
+      <c r="E115" t="s">
+        <v>422</v>
+      </c>
+      <c r="F115" t="s">
+        <v>423</v>
+      </c>
+      <c r="G115" t="s">
+        <v>424</v>
+      </c>
+      <c r="H115" t="s">
+        <v>425</v>
+      </c>
+      <c r="I115" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>999</v>
+      </c>
+      <c r="C116">
+        <v>999</v>
+      </c>
+      <c r="D116">
+        <v>999</v>
+      </c>
+      <c r="E116" t="s">
+        <v>427</v>
+      </c>
+      <c r="F116" t="s">
+        <v>428</v>
+      </c>
+      <c r="G116">
+        <v>999</v>
+      </c>
+      <c r="H116" t="s">
+        <v>410</v>
+      </c>
+      <c r="I116">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117">
+        <v>999</v>
+      </c>
+      <c r="C117">
+        <v>999</v>
+      </c>
+      <c r="D117">
+        <v>999</v>
+      </c>
+      <c r="E117" t="s">
+        <v>429</v>
+      </c>
+      <c r="F117" t="s">
+        <v>430</v>
+      </c>
+      <c r="G117">
+        <v>999</v>
+      </c>
+      <c r="H117" t="s">
+        <v>431</v>
+      </c>
+      <c r="I117" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Index_Ref/JR_Index_Ref.xlsx
+++ b/Index_Ref/JR_Index_Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/DWA/Index_Ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF45ED-42CB-DA47-9FAF-66F884C06ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6845B-32FB-254E-89BC-7B0C22222B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14780" windowHeight="15960" xr2:uid="{8BC211EB-E14E-4240-9732-7A8561E460F7}"/>
   </bookViews>
@@ -1721,11 +1721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D11876-F5A7-4CE5-A458-C7D1491B4DFF}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4511,7 +4511,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -4913,11 +4913,11 @@
       <c r="H110" t="s">
         <v>411</v>
       </c>
-      <c r="J110" t="s">
+      <c r="I110" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
